--- a/DATA/Vocabularies/non_protest.xlsx
+++ b/DATA/Vocabularies/non_protest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>Phrases</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Conditional Phrases</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -459,6 +464,7 @@
           <t>Football, soccer, PSL, score, Bafana</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -471,9 +477,10 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cricket, rugby, games, athletics, race, marathon</t>
-        </is>
-      </c>
+          <t>Cricket, rugby, games, athletics, race, marathon, Proteas, Springboks, Olympics, athletics</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -489,6 +496,7 @@
           <t>Tribal court, traditional court, imbizo,</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -504,6 +512,7 @@
           <t>Memorial, funeral, burial, after tears, mourners</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -519,6 +528,7 @@
           <t xml:space="preserve">Church service, ZCC, Shembe, prayer, dedication </t>
         </is>
       </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -534,6 +544,7 @@
           <t>Campaign, rally, door to door, register, registration</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -549,6 +560,7 @@
           <t>Debate, Various candidates</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -564,6 +576,7 @@
           <t>Vote, voting, voting station, polling station,</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -579,6 +592,7 @@
           <t>Taxi, taxis, taxi drivers, over routes</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -594,6 +608,7 @@
           <t>days of activism, against women, abuse,</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -609,6 +624,7 @@
           <t>Career, hobby, carnival, exhibition, inauguration, unveiling, concert, DJ,</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DATA/Vocabularies/non_protest.xlsx
+++ b/DATA/Vocabularies/non_protest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Conditional Phrases</t>
+          <t>Conditional_Phrases</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>cleaned_phrases</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>cleaned_conditional_phrases</t>
         </is>
       </c>
     </row>
@@ -461,10 +471,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Football, soccer, PSL, score, Bafana</t>
+          <t>['Football', ' soccer', ' PSL', ' score', ' Bafana']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>['football', 'soccer', 'psl', 'score', 'bafana']</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['football', 'soccer', 'psl', 'score', 'bafana']</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -477,10 +497,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cricket, rugby, games, athletics, race, marathon, Proteas, Springboks, Olympics, athletics</t>
+          <t>['Cricket', ' rugby', ' games', ' athletics', ' race', ' marathon', ' Proteas', ' Springboks', ' Olympics', ' athletics']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>['cricket', 'rugby', 'game', 'athletics', 'race', 'marathon', 'protea', 'springboks', 'olympics', 'athletics']</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['cricket', 'rugby', 'game', 'athletics', 'race', 'marathon', 'protea', 'springboks', 'olympics', 'athletics']</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -493,10 +523,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tribal court, traditional court, imbizo,</t>
+          <t>['Tribal court', ' traditional court', ' imbizo', '']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>['tribal', 'court', 'traditional', 'court', 'imbizo']</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['tribal', 'court', 'traditional', 'court', 'imbizo']</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -509,10 +549,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Memorial, funeral, burial, after tears, mourners</t>
+          <t>['Memorial', ' funeral', ' burial', ' after tears', ' mourners']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>['memorial', 'funeral', 'burial', 'tear', 'mourner']</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['memorial', 'funeral', 'burial', 'tear', 'mourner']</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -525,10 +575,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Church service, ZCC, Shembe, prayer, dedication </t>
+          <t>['Church service', ' ZCC', ' Shembe', ' prayer', ' dedication ']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>['church', 'service', 'zcc', 'shembe', 'prayer', 'dedication']</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['church', 'service', 'zcc', 'shembe', 'prayer', 'dedication']</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -541,10 +601,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Campaign, rally, door to door, register, registration</t>
+          <t>['Campaign', ' rally', ' door to door', ' register', ' registration']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>['campaign', 'rally', 'door', 'door', 'register', 'registration']</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>['campaign', 'rally', 'door', 'door', 'register', 'registration']</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -557,10 +627,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Debate, Various candidates</t>
+          <t>['Debate', ' Various candidates']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>['debate', 'various', 'candidate']</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['debate', 'various', 'candidate']</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -573,10 +653,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vote, voting, voting station, polling station,</t>
+          <t>['Vote', ' voting', ' voting station', ' polling station', '']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>['vote', 'vote', 'vote', 'station', 'polling', 'station']</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>['vote', 'vote', 'vote', 'station', 'polling', 'station']</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -589,10 +679,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Taxi, taxis, taxi drivers, over routes</t>
+          <t>['Taxi', ' taxis', ' taxi drivers', ' over routes']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>['taxi', 'taxi', 'taxi', 'driver', 'route']</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>['taxi', 'taxi', 'taxi', 'driver', 'route']</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -605,10 +705,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>days of activism, against women, abuse,</t>
+          <t>['days of activism', ' against women', ' abuse', '']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>['day', 'activism', 'woman', 'abuse']</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>['day', 'activism', 'woman', 'abuse']</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -621,10 +731,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Career, hobby, carnival, exhibition, inauguration, unveiling, concert, DJ,</t>
+          <t>['Career', ' hobby', ' carnival', ' exhibition', ' inauguration', ' unveiling', ' concert', ' DJ', '']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>['career', 'hobby', 'carnival', 'exhibition', 'inauguration', 'unveil', 'concert', 'dj']</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>['career', 'hobby', 'carnival', 'exhibition', 'inauguration', 'unveil', 'concert', 'dj']</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DATA/Vocabularies/non_protest.xlsx
+++ b/DATA/Vocabularies/non_protest.xlsx
@@ -480,11 +480,7 @@
           <t>['football', 'soccer', 'psl', 'score', 'bafana']</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>['football', 'soccer', 'psl', 'score', 'bafana']</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -506,11 +502,7 @@
           <t>['cricket', 'rugby', 'game', 'athletics', 'race', 'marathon', 'protea', 'springboks', 'olympics', 'athletics']</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>['cricket', 'rugby', 'game', 'athletics', 'race', 'marathon', 'protea', 'springboks', 'olympics', 'athletics']</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,11 +524,7 @@
           <t>['tribal', 'court', 'traditional', 'court', 'imbizo']</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>['tribal', 'court', 'traditional', 'court', 'imbizo']</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -558,11 +546,7 @@
           <t>['memorial', 'funeral', 'burial', 'tear', 'mourner']</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>['memorial', 'funeral', 'burial', 'tear', 'mourner']</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -584,11 +568,7 @@
           <t>['church', 'service', 'zcc', 'shembe', 'prayer', 'dedication']</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>['church', 'service', 'zcc', 'shembe', 'prayer', 'dedication']</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -610,11 +590,7 @@
           <t>['campaign', 'rally', 'door', 'door', 'register', 'registration']</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>['campaign', 'rally', 'door', 'door', 'register', 'registration']</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -636,11 +612,7 @@
           <t>['debate', 'various', 'candidate']</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>['debate', 'various', 'candidate']</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -662,11 +634,7 @@
           <t>['vote', 'vote', 'vote', 'station', 'polling', 'station']</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>['vote', 'vote', 'vote', 'station', 'polling', 'station']</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -688,11 +656,7 @@
           <t>['taxi', 'taxi', 'taxi', 'driver', 'route']</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>['taxi', 'taxi', 'taxi', 'driver', 'route']</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -714,11 +678,7 @@
           <t>['day', 'activism', 'woman', 'abuse']</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>['day', 'activism', 'woman', 'abuse']</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -740,11 +700,7 @@
           <t>['career', 'hobby', 'carnival', 'exhibition', 'inauguration', 'unveil', 'concert', 'dj']</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>['career', 'hobby', 'carnival', 'exhibition', 'inauguration', 'unveil', 'concert', 'dj']</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DATA/Vocabularies/non_protest.xlsx
+++ b/DATA/Vocabularies/non_protest.xlsx
@@ -471,13 +471,13 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Football', ' soccer', ' PSL', ' score', ' Bafana']</t>
+          <t>['Football', 'soccer', 'PSL', 'score', 'Bafana']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['football', 'soccer', 'psl', 'score', 'bafana']</t>
+          <t>['football,soccer,psl,score,bafana']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -493,13 +493,13 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['Cricket', ' rugby', ' games', ' athletics', ' race', ' marathon', ' Proteas', ' Springboks', ' Olympics', ' athletics']</t>
+          <t>['Cricket', 'rugby', 'games', 'athletics', 'race', 'marathon', 'Proteas', 'Springboks', 'Olympics', 'athletics']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['cricket', 'rugby', 'game', 'athletics', 'race', 'marathon', 'protea', 'springboks', 'olympics', 'athletics']</t>
+          <t>['cricket,rugby,games,athletics,race,marathon,proteas,springboks,olympics,athletics']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -515,13 +515,13 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['Tribal court', ' traditional court', ' imbizo', '']</t>
+          <t>['Tribal court', 'traditional court', 'imbizo']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['tribal', 'court', 'traditional', 'court', 'imbizo']</t>
+          <t>['tribal', 'court,traditional', 'court,imbizo']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -537,13 +537,13 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['Memorial', ' funeral', ' burial', ' after tears', ' mourners']</t>
+          <t>['Memorial', 'funeral', 'burial', 'after tears', 'mourners']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['memorial', 'funeral', 'burial', 'tear', 'mourner']</t>
+          <t>['memorial,funeral,burial,after', 'tears,mourners']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -559,13 +559,13 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['Church service', ' ZCC', ' Shembe', ' prayer', ' dedication ']</t>
+          <t>['Church service', 'ZCC', 'Shembe', 'prayer', 'dedication ']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['church', 'service', 'zcc', 'shembe', 'prayer', 'dedication']</t>
+          <t>['church', 'service,zcc,shembe,prayer,dedication']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -581,13 +581,13 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['Campaign', ' rally', ' door to door', ' register', ' registration']</t>
+          <t>['Campaign', 'rally', 'door to door', 'register', 'registration']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['campaign', 'rally', 'door', 'door', 'register', 'registration']</t>
+          <t>['campaign,rally,door', 'door,register,registration']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -603,13 +603,13 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['Debate', ' Various candidates']</t>
+          <t>['Debate', 'Various candidates']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['debate', 'various', 'candidate']</t>
+          <t>['debate,various', 'candidate']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -625,13 +625,13 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['Vote', ' voting', ' voting station', ' polling station', '']</t>
+          <t>['Vote', 'voting', 'voting station', 'polling station']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['vote', 'vote', 'vote', 'station', 'polling', 'station']</t>
+          <t>['vote,voting,voting', 'station,polling', 'station']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -647,13 +647,13 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['Taxi', ' taxis', ' taxi drivers', ' over routes']</t>
+          <t>['Taxi', 'taxis', 'taxi drivers', 'over routes']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['taxi', 'taxi', 'taxi', 'driver', 'route']</t>
+          <t>['taxi,taxis,taxi', 'drivers,over', 'route']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -669,13 +669,13 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['days of activism', ' against women', ' abuse', '']</t>
+          <t>['days of activism', 'against women', 'abuse']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['day', 'activism', 'woman', 'abuse']</t>
+          <t>['day', 'activism,against', 'women,abuse']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -691,13 +691,13 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['Career', ' hobby', ' carnival', ' exhibition', ' inauguration', ' unveiling', ' concert', ' DJ', '']</t>
+          <t>['Career', 'hobby', 'carnival', 'exhibition', 'inauguration', 'unveiling', 'concert', 'DJ']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['career', 'hobby', 'carnival', 'exhibition', 'inauguration', 'unveil', 'concert', 'dj']</t>
+          <t>['career,hobby,carnival,exhibition,inauguration,unveiling,concert,dj']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>

--- a/DATA/Vocabularies/non_protest.xlsx
+++ b/DATA/Vocabularies/non_protest.xlsx
@@ -493,13 +493,13 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['Cricket', 'rugby', 'games', 'athletics', 'race', 'marathon', 'Proteas', 'Springboks', 'Olympics', 'athletics']</t>
+          <t>['Cricket', 'rugby', 'game', 'athletics', 'race', 'marathon', 'Proteas', 'Springboks', 'Olympics', 'athletics', 'match']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['cricket,rugby,games,athletics,race,marathon,proteas,springboks,olympics,athletics']</t>
+          <t>['cricket,rugby,game,athletics,race,marathon,proteas,springboks,olympics,athletics,match']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -537,13 +537,13 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['Memorial', 'funeral', 'burial', 'after tears', 'mourners']</t>
+          <t>['Memorial', 'funeral', 'burial', 'after tears', 'mourners', 'mourn']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['memorial,funeral,burial,after', 'tears,mourners']</t>
+          <t>['memorial,funeral,burial,after', 'tears,mourners,mourn']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -625,13 +625,13 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['Vote', 'voting', 'voting station', 'polling station']</t>
+          <t>['Vote', 'voting', 'voting station', 'polling station', 'polls', 'election']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['vote,voting,voting', 'station,polling', 'station']</t>
+          <t>['vote,voting,voting', 'station,polling', 'station,polls,election']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>

--- a/DATA/Vocabularies/non_protest.xlsx
+++ b/DATA/Vocabularies/non_protest.xlsx
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -484,7 +484,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -506,7 +506,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -528,7 +528,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -572,7 +572,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
